--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Prn-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Prn-Rpsa.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5664969999999999</v>
+        <v>1.091324666666667</v>
       </c>
       <c r="H2">
-        <v>1.699491</v>
+        <v>3.273974</v>
       </c>
       <c r="I2">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="J2">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N2">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q2">
-        <v>60.36737187414632</v>
+        <v>22.44679317949445</v>
       </c>
       <c r="R2">
-        <v>543.306346867317</v>
+        <v>202.02113861545</v>
       </c>
       <c r="S2">
-        <v>0.1912091728853683</v>
+        <v>0.07820066755824398</v>
       </c>
       <c r="T2">
-        <v>0.1912091728853683</v>
+        <v>0.07820066755824399</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5664969999999999</v>
+        <v>1.091324666666667</v>
       </c>
       <c r="H3">
-        <v>1.699491</v>
+        <v>3.273974</v>
       </c>
       <c r="I3">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="J3">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q3">
-        <v>58.29256943601766</v>
+        <v>112.2973624024585</v>
       </c>
       <c r="R3">
-        <v>524.633124924159</v>
+        <v>1010.676261622126</v>
       </c>
       <c r="S3">
-        <v>0.184637390053374</v>
+        <v>0.3912242000307006</v>
       </c>
       <c r="T3">
-        <v>0.184637390053374</v>
+        <v>0.3912242000307006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5664969999999999</v>
+        <v>1.091324666666667</v>
       </c>
       <c r="H4">
-        <v>1.699491</v>
+        <v>3.273974</v>
       </c>
       <c r="I4">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="J4">
-        <v>0.4372148891045318</v>
+        <v>0.5994568957956572</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q4">
-        <v>19.37482658933466</v>
+        <v>37.32451569792978</v>
       </c>
       <c r="R4">
-        <v>174.373439304012</v>
+        <v>335.920641281368</v>
       </c>
       <c r="S4">
-        <v>0.06136832616578955</v>
+        <v>0.1300320282067126</v>
       </c>
       <c r="T4">
-        <v>0.06136832616578955</v>
+        <v>0.1300320282067126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6340866666666666</v>
+        <v>0.6340866666666667</v>
       </c>
       <c r="H5">
         <v>1.90226</v>
       </c>
       <c r="I5">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="J5">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N5">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q5">
-        <v>67.56989994140221</v>
+        <v>13.04214291061111</v>
       </c>
       <c r="R5">
-        <v>608.1290994726199</v>
+        <v>117.3792861955</v>
       </c>
       <c r="S5">
-        <v>0.2140226463175861</v>
+        <v>0.0454365251127056</v>
       </c>
       <c r="T5">
-        <v>0.2140226463175861</v>
+        <v>0.04543652511270561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6340866666666666</v>
+        <v>0.6340866666666667</v>
       </c>
       <c r="H6">
         <v>1.90226</v>
       </c>
       <c r="I6">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="J6">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q6">
-        <v>65.2475494929711</v>
+        <v>65.24754949297112</v>
       </c>
       <c r="R6">
         <v>587.22794543674</v>
       </c>
       <c r="S6">
-        <v>0.2066667735239147</v>
+        <v>0.2273109519960759</v>
       </c>
       <c r="T6">
-        <v>0.2066667735239147</v>
+        <v>0.2273109519960759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.6340866666666666</v>
+        <v>0.6340866666666667</v>
       </c>
       <c r="H7">
         <v>1.90226</v>
       </c>
       <c r="I7">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="J7">
-        <v>0.4893796995382657</v>
+        <v>0.3482993067740449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>102.603332</v>
       </c>
       <c r="O7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q7">
         <v>21.68646825892444</v>
@@ -880,10 +880,10 @@
         <v>195.17821433032</v>
       </c>
       <c r="S7">
-        <v>0.06869027969676499</v>
+        <v>0.07555182966526341</v>
       </c>
       <c r="T7">
-        <v>0.06869027969676499</v>
+        <v>0.07555182966526343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.285333</v>
       </c>
       <c r="I8">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="J8">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N8">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P8">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q8">
-        <v>10.13527186608567</v>
+        <v>1.956280299808333</v>
       </c>
       <c r="R8">
-        <v>91.21744679477099</v>
+        <v>17.606522698275</v>
       </c>
       <c r="S8">
-        <v>0.03210272188961329</v>
+        <v>0.006815335453609721</v>
       </c>
       <c r="T8">
-        <v>0.03210272188961329</v>
+        <v>0.006815335453609721</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.285333</v>
       </c>
       <c r="I9">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="J9">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>308.700149</v>
       </c>
       <c r="O9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P9">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q9">
         <v>9.786926623846334</v>
@@ -1004,10 +1004,10 @@
         <v>88.082339614617</v>
       </c>
       <c r="S9">
-        <v>0.03099936417203703</v>
+        <v>0.03409592582817087</v>
       </c>
       <c r="T9">
-        <v>0.03099936417203703</v>
+        <v>0.03409592582817087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.285333</v>
       </c>
       <c r="I10">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="J10">
-        <v>0.07340541135720248</v>
+        <v>0.05224379743029794</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>102.603332</v>
       </c>
       <c r="O10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P10">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q10">
         <v>3.252901836617333</v>
@@ -1066,10 +1066,10 @@
         <v>29.276116529556</v>
       </c>
       <c r="S10">
-        <v>0.01030332529555216</v>
+        <v>0.01133253614851734</v>
       </c>
       <c r="T10">
-        <v>0.01030332529555216</v>
+        <v>0.01133253614851735</v>
       </c>
     </row>
   </sheetData>
